--- a/files/8364ac2c-8e70-4bfe-8f5b-c1b7959220c6_gt.xlsx
+++ b/files/8364ac2c-8e70-4bfe-8f5b-c1b7959220c6_gt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12760" tabRatio="500"/>
+    <workbookView windowWidth="28000" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -741,13 +742,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="30" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1355,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7583333333333" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1626,9 +1627,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D19">
-    <sortCondition ref="D2" descending="1"/>
-  </sortState>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
